--- a/Code/Results/Cases/Case_1_69/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_69/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9982230214677726</v>
+        <v>1.023853037233885</v>
       </c>
       <c r="D2">
-        <v>1.037738795712746</v>
+        <v>1.046426690281516</v>
       </c>
       <c r="E2">
-        <v>1.004946926051843</v>
+        <v>1.024418202208154</v>
       </c>
       <c r="F2">
-        <v>1.037135720710371</v>
+        <v>1.051806270911759</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.047884794282428</v>
+        <v>1.038597822941348</v>
       </c>
       <c r="J2">
-        <v>1.020457011870924</v>
+        <v>1.029030929428512</v>
       </c>
       <c r="K2">
-        <v>1.048696261812196</v>
+        <v>1.049192158254963</v>
       </c>
       <c r="L2">
-        <v>1.016337769891794</v>
+        <v>1.027246762104584</v>
       </c>
       <c r="M2">
-        <v>1.048100848029357</v>
+        <v>1.054556752670492</v>
       </c>
       <c r="N2">
-        <v>1.010781819624371</v>
+        <v>1.013728238835013</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.001771705830172</v>
+        <v>1.024614579614752</v>
       </c>
       <c r="D3">
-        <v>1.040206930476789</v>
+        <v>1.04697835063581</v>
       </c>
       <c r="E3">
-        <v>1.007708172029346</v>
+        <v>1.025059803085877</v>
       </c>
       <c r="F3">
-        <v>1.040149053611413</v>
+        <v>1.052501830847125</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.048760973051476</v>
+        <v>1.038745142137015</v>
       </c>
       <c r="J3">
-        <v>1.022214188606297</v>
+        <v>1.029432101398863</v>
       </c>
       <c r="K3">
-        <v>1.050349958831578</v>
+        <v>1.049556134688157</v>
       </c>
       <c r="L3">
-        <v>1.018243366317334</v>
+        <v>1.027695900305702</v>
       </c>
       <c r="M3">
-        <v>1.05029275343798</v>
+        <v>1.055065333496253</v>
       </c>
       <c r="N3">
-        <v>1.011372885983242</v>
+        <v>1.013862221798008</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.004029145735308</v>
+        <v>1.025108151980992</v>
       </c>
       <c r="D4">
-        <v>1.041780301434272</v>
+        <v>1.047335907651674</v>
       </c>
       <c r="E4">
-        <v>1.009470590550103</v>
+        <v>1.025476046816933</v>
       </c>
       <c r="F4">
-        <v>1.042071151602146</v>
+        <v>1.052952894336875</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.049310938354695</v>
+        <v>1.038839669537429</v>
       </c>
       <c r="J4">
-        <v>1.023330344099208</v>
+        <v>1.029691812000185</v>
       </c>
       <c r="K4">
-        <v>1.051399327698954</v>
+        <v>1.049791539015942</v>
       </c>
       <c r="L4">
-        <v>1.019456042039512</v>
+        <v>1.027986920123492</v>
       </c>
       <c r="M4">
-        <v>1.051687006047253</v>
+        <v>1.055394729579753</v>
       </c>
       <c r="N4">
-        <v>1.011748203016522</v>
+        <v>1.01394892638787</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.004969148713686</v>
+        <v>1.025315840222298</v>
       </c>
       <c r="D5">
-        <v>1.042436197797492</v>
+        <v>1.047486365194926</v>
       </c>
       <c r="E5">
-        <v>1.010205848433353</v>
+        <v>1.025651293434718</v>
       </c>
       <c r="F5">
-        <v>1.042872722229546</v>
+        <v>1.053142756048976</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.049538136505985</v>
+        <v>1.038879217011232</v>
       </c>
       <c r="J5">
-        <v>1.023794695839167</v>
+        <v>1.029801023048343</v>
       </c>
       <c r="K5">
-        <v>1.051835620316593</v>
+        <v>1.049890474503355</v>
       </c>
       <c r="L5">
-        <v>1.019961087999954</v>
+        <v>1.028109358504893</v>
       </c>
       <c r="M5">
-        <v>1.052267510417894</v>
+        <v>1.055533280126733</v>
       </c>
       <c r="N5">
-        <v>1.011904312932567</v>
+        <v>1.013985378584614</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.005126457595779</v>
+        <v>1.025350723101563</v>
       </c>
       <c r="D6">
-        <v>1.042546003700907</v>
+        <v>1.047511635861204</v>
       </c>
       <c r="E6">
-        <v>1.010328973735094</v>
+        <v>1.02568073316916</v>
       </c>
       <c r="F6">
-        <v>1.043006934040192</v>
+        <v>1.053174648356761</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.049576050731579</v>
+        <v>1.038885845932676</v>
       </c>
       <c r="J6">
-        <v>1.023872379571463</v>
+        <v>1.029819361708663</v>
       </c>
       <c r="K6">
-        <v>1.051908593199951</v>
+        <v>1.049907084492698</v>
       </c>
       <c r="L6">
-        <v>1.020045611384403</v>
+        <v>1.028129921896475</v>
       </c>
       <c r="M6">
-        <v>1.05236465236162</v>
+        <v>1.055556547566958</v>
       </c>
       <c r="N6">
-        <v>1.01193042738364</v>
+        <v>1.013991499147817</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.004041741220231</v>
+        <v>1.02511092637566</v>
       </c>
       <c r="D7">
-        <v>1.041789087200049</v>
+        <v>1.047337917522997</v>
       </c>
       <c r="E7">
-        <v>1.009480437153841</v>
+        <v>1.025478387460559</v>
       </c>
       <c r="F7">
-        <v>1.042081887479569</v>
+        <v>1.052955430359382</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.049313989857512</v>
+        <v>1.038840198727541</v>
       </c>
       <c r="J7">
-        <v>1.023336567818139</v>
+        <v>1.029693271172418</v>
       </c>
       <c r="K7">
-        <v>1.051405176449596</v>
+        <v>1.049792861110604</v>
       </c>
       <c r="L7">
-        <v>1.019462809054323</v>
+        <v>1.027988555785019</v>
       </c>
       <c r="M7">
-        <v>1.051694784777634</v>
+        <v>1.055396580616655</v>
       </c>
       <c r="N7">
-        <v>1.011750295492423</v>
+        <v>1.01394941345828</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9994305106834004</v>
+        <v>1.024110236501439</v>
       </c>
       <c r="D8">
-        <v>1.038577889291489</v>
+        <v>1.046613001850945</v>
       </c>
       <c r="E8">
-        <v>1.005885225667179</v>
+        <v>1.024634808350747</v>
       </c>
       <c r="F8">
-        <v>1.038159929970219</v>
+        <v>1.052041132333341</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.048184454691488</v>
+        <v>1.038647774891168</v>
       </c>
       <c r="J8">
-        <v>1.02105524552154</v>
+        <v>1.029166480583135</v>
       </c>
       <c r="K8">
-        <v>1.049259474203625</v>
+        <v>1.049315188243897</v>
       </c>
       <c r="L8">
-        <v>1.016986063625038</v>
+        <v>1.027398467294819</v>
       </c>
       <c r="M8">
-        <v>1.048846667362414</v>
+        <v>1.054728564585191</v>
       </c>
       <c r="N8">
-        <v>1.01098307462</v>
+        <v>1.013773516921723</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9909954621041746</v>
+        <v>1.022353133330482</v>
       </c>
       <c r="D9">
-        <v>1.032732431108986</v>
+        <v>1.045340263471939</v>
       </c>
       <c r="E9">
-        <v>0.9993568185277468</v>
+        <v>1.023156713416005</v>
       </c>
       <c r="F9">
-        <v>1.031029136703307</v>
+        <v>1.050437704694547</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.046061291989651</v>
+        <v>1.038302623882868</v>
       </c>
       <c r="J9">
-        <v>1.016870250539323</v>
+        <v>1.028239228635604</v>
       </c>
       <c r="K9">
-        <v>1.045315867277189</v>
+        <v>1.048472670158234</v>
       </c>
       <c r="L9">
-        <v>1.012460339528937</v>
+        <v>1.02636176483822</v>
       </c>
       <c r="M9">
-        <v>1.043638077035724</v>
+        <v>1.053553893113842</v>
       </c>
       <c r="N9">
-        <v>1.009574716452552</v>
+        <v>1.013463652449037</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.985145962705905</v>
+        <v>1.021186043425238</v>
       </c>
       <c r="D10">
-        <v>1.028701673536756</v>
+        <v>1.044495025980832</v>
       </c>
       <c r="E10">
-        <v>0.9948642602675705</v>
+        <v>1.022177084468558</v>
       </c>
       <c r="F10">
-        <v>1.026116690706335</v>
+        <v>1.049374056777309</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.044552587671034</v>
+        <v>1.038068486911497</v>
       </c>
       <c r="J10">
-        <v>1.013961574264878</v>
+        <v>1.027621826724518</v>
       </c>
       <c r="K10">
-        <v>1.042571351692958</v>
+        <v>1.047910544894086</v>
       </c>
       <c r="L10">
-        <v>1.009326865366906</v>
+        <v>1.025672808749539</v>
       </c>
       <c r="M10">
-        <v>1.040029885120883</v>
+        <v>1.052772542231874</v>
       </c>
       <c r="N10">
-        <v>1.008595368861201</v>
+        <v>1.013257164087596</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9825551539648052</v>
+        <v>1.020681728132174</v>
       </c>
       <c r="D11">
-        <v>1.026922676241746</v>
+        <v>1.04412982728349</v>
       </c>
       <c r="E11">
-        <v>0.9928832119934283</v>
+        <v>1.021754287945052</v>
       </c>
       <c r="F11">
-        <v>1.023949399767787</v>
+        <v>1.048914772973975</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.043876237020029</v>
+        <v>1.037966155977153</v>
       </c>
       <c r="J11">
-        <v>1.012672108006844</v>
+        <v>1.027354683555181</v>
       </c>
       <c r="K11">
-        <v>1.041354124085023</v>
+        <v>1.047667051576662</v>
       </c>
       <c r="L11">
-        <v>1.007940600186266</v>
+        <v>1.025375018784589</v>
       </c>
       <c r="M11">
-        <v>1.038433370147866</v>
+        <v>1.052434650464642</v>
       </c>
       <c r="N11">
-        <v>1.008161114103402</v>
+        <v>1.013167779358913</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9815837218224901</v>
+        <v>1.020494561586682</v>
       </c>
       <c r="D12">
-        <v>1.026256650916199</v>
+        <v>1.04399429779027</v>
       </c>
       <c r="E12">
-        <v>0.9921417728751346</v>
+        <v>1.021597453312404</v>
       </c>
       <c r="F12">
-        <v>1.023138109236612</v>
+        <v>1.048744369654748</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.043621458681194</v>
+        <v>1.037928004101164</v>
       </c>
       <c r="J12">
-        <v>1.012188472193903</v>
+        <v>1.027255485503811</v>
       </c>
       <c r="K12">
-        <v>1.040897529993732</v>
+        <v>1.047576595439336</v>
       </c>
       <c r="L12">
-        <v>1.007421088717685</v>
+        <v>1.025264487880038</v>
       </c>
       <c r="M12">
-        <v>1.037835051261183</v>
+        <v>1.052309210189686</v>
       </c>
       <c r="N12">
-        <v>1.007998227850228</v>
+        <v>1.013134582310867</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9817925151038136</v>
+        <v>1.02053470223637</v>
       </c>
       <c r="D13">
-        <v>1.026399754947626</v>
+        <v>1.044023363790902</v>
       </c>
       <c r="E13">
-        <v>0.9923010706750496</v>
+        <v>1.021631085299746</v>
       </c>
       <c r="F13">
-        <v>1.023312420952936</v>
+        <v>1.04878091287619</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.043676271635348</v>
+        <v>1.037936194202958</v>
       </c>
       <c r="J13">
-        <v>1.012292427817062</v>
+        <v>1.027276762405925</v>
       </c>
       <c r="K13">
-        <v>1.040995675021114</v>
+        <v>1.047595999100502</v>
       </c>
       <c r="L13">
-        <v>1.007532736201692</v>
+        <v>1.025288193419446</v>
       </c>
       <c r="M13">
-        <v>1.037963635486819</v>
+        <v>1.052336114456872</v>
       </c>
       <c r="N13">
-        <v>1.008033240108231</v>
+        <v>1.013141702982332</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9824750428278489</v>
+        <v>1.020666253639934</v>
       </c>
       <c r="D14">
-        <v>1.02686773001403</v>
+        <v>1.044118621880936</v>
       </c>
       <c r="E14">
-        <v>0.9928220397400842</v>
+        <v>1.021741319632585</v>
       </c>
       <c r="F14">
-        <v>1.023882467336928</v>
+        <v>1.048900683387812</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.043855249923146</v>
+        <v>1.037963005215207</v>
       </c>
       <c r="J14">
-        <v>1.012632226782991</v>
+        <v>1.027346483176693</v>
       </c>
       <c r="K14">
-        <v>1.041316473660495</v>
+        <v>1.047659574677486</v>
       </c>
       <c r="L14">
-        <v>1.007897751849687</v>
+        <v>1.025365880593123</v>
       </c>
       <c r="M14">
-        <v>1.038384022109975</v>
+        <v>1.052424280138766</v>
       </c>
       <c r="N14">
-        <v>1.008147682522431</v>
+        <v>1.013165035187511</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9828943542201148</v>
+        <v>1.020747327878782</v>
       </c>
       <c r="D15">
-        <v>1.027155367097976</v>
+        <v>1.044177329707161</v>
       </c>
       <c r="E15">
-        <v>0.9931422785411154</v>
+        <v>1.021809266641781</v>
       </c>
       <c r="F15">
-        <v>1.024232854954419</v>
+        <v>1.04897450388235</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.043965051107361</v>
+        <v>1.037979505624712</v>
       </c>
       <c r="J15">
-        <v>1.012840964159022</v>
+        <v>1.027389444569341</v>
       </c>
       <c r="K15">
-        <v>1.041513533109885</v>
+        <v>1.0476987441611</v>
       </c>
       <c r="L15">
-        <v>1.008122036587543</v>
+        <v>1.025413757076546</v>
       </c>
       <c r="M15">
-        <v>1.038642328302381</v>
+        <v>1.052478610963018</v>
       </c>
       <c r="N15">
-        <v>1.008217982630574</v>
+        <v>1.013179411529812</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9853166530007054</v>
+        <v>1.021219535302667</v>
       </c>
       <c r="D16">
-        <v>1.028819016323062</v>
+        <v>1.044519279944407</v>
       </c>
       <c r="E16">
-        <v>0.9949949643709836</v>
+        <v>1.022205173531016</v>
       </c>
       <c r="F16">
-        <v>1.026259661194926</v>
+        <v>1.049404565163262</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044596981556912</v>
+        <v>1.038075258374254</v>
       </c>
       <c r="J16">
-        <v>1.014046506149179</v>
+        <v>1.027639560382713</v>
       </c>
       <c r="K16">
-        <v>1.042651516660605</v>
+        <v>1.047926702993018</v>
       </c>
       <c r="L16">
-        <v>1.009418232736724</v>
+        <v>1.025692583440455</v>
       </c>
       <c r="M16">
-        <v>1.040135106659324</v>
+        <v>1.052794976394463</v>
       </c>
       <c r="N16">
-        <v>1.0086239696953</v>
+        <v>1.013263096850104</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9868203195454071</v>
+        <v>1.021516019025545</v>
       </c>
       <c r="D17">
-        <v>1.029853451776877</v>
+        <v>1.0447339905928</v>
       </c>
       <c r="E17">
-        <v>0.9961473844968528</v>
+        <v>1.022453888893904</v>
       </c>
       <c r="F17">
-        <v>1.027520111641492</v>
+        <v>1.049674676380678</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.044987138992081</v>
+        <v>1.038135068300194</v>
       </c>
       <c r="J17">
-        <v>1.014794567769966</v>
+        <v>1.0277965048554</v>
       </c>
       <c r="K17">
-        <v>1.043357534424322</v>
+        <v>1.048069672713389</v>
       </c>
       <c r="L17">
-        <v>1.010223302912076</v>
+        <v>1.025867627520022</v>
       </c>
       <c r="M17">
-        <v>1.041062226629622</v>
+        <v>1.052993542778119</v>
       </c>
       <c r="N17">
-        <v>1.008875869288798</v>
+        <v>1.013315597779758</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9876918198644896</v>
+        <v>1.021689053400592</v>
       </c>
       <c r="D18">
-        <v>1.030453585407532</v>
+        <v>1.044859304214769</v>
       </c>
       <c r="E18">
-        <v>0.9968161385874725</v>
+        <v>1.022599094261572</v>
       </c>
       <c r="F18">
-        <v>1.028251451185807</v>
+        <v>1.049832351290326</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.045212491124856</v>
+        <v>1.038169862886497</v>
       </c>
       <c r="J18">
-        <v>1.01522801741452</v>
+        <v>1.027888066723198</v>
       </c>
       <c r="K18">
-        <v>1.043766569625953</v>
+        <v>1.048153055805909</v>
       </c>
       <c r="L18">
-        <v>1.010690056875247</v>
+        <v>1.025969779052358</v>
       </c>
       <c r="M18">
-        <v>1.041599717684267</v>
+        <v>1.053109405353282</v>
       </c>
       <c r="N18">
-        <v>1.009021818564954</v>
+        <v>1.013346223168047</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9879880467672095</v>
+        <v>1.021748070625381</v>
       </c>
       <c r="D19">
-        <v>1.03065767179341</v>
+        <v>1.044902045836857</v>
       </c>
       <c r="E19">
-        <v>0.9970435906426109</v>
+        <v>1.022648628188121</v>
       </c>
       <c r="F19">
-        <v>1.028500171092693</v>
+        <v>1.049886135252117</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.045288956330827</v>
+        <v>1.038181711390738</v>
       </c>
       <c r="J19">
-        <v>1.015375328565993</v>
+        <v>1.027919290102828</v>
       </c>
       <c r="K19">
-        <v>1.043905573538572</v>
+        <v>1.048181485758318</v>
       </c>
       <c r="L19">
-        <v>1.010848732834388</v>
+        <v>1.026004618736671</v>
       </c>
       <c r="M19">
-        <v>1.041782436600803</v>
+        <v>1.053148918590405</v>
       </c>
       <c r="N19">
-        <v>1.009071418940296</v>
+        <v>1.013356666040185</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9866595684811714</v>
+        <v>1.021484198724967</v>
       </c>
       <c r="D20">
-        <v>1.029742802469113</v>
+        <v>1.044710946240401</v>
       </c>
       <c r="E20">
-        <v>0.9960240973778688</v>
+        <v>1.022427190223794</v>
       </c>
       <c r="F20">
-        <v>1.027385278091016</v>
+        <v>1.049645683200759</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.044945509030016</v>
+        <v>1.038128660722757</v>
       </c>
       <c r="J20">
-        <v>1.014714607105985</v>
+        <v>1.027779664243013</v>
       </c>
       <c r="K20">
-        <v>1.043282073142656</v>
+        <v>1.048054334306904</v>
       </c>
       <c r="L20">
-        <v>1.010137220381276</v>
+        <v>1.025848841631455</v>
       </c>
       <c r="M20">
-        <v>1.040963096158604</v>
+        <v>1.05297223410941</v>
       </c>
       <c r="N20">
-        <v>1.008848944539058</v>
+        <v>1.013309964666308</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9822743095697426</v>
+        <v>1.020627510635886</v>
       </c>
       <c r="D21">
-        <v>1.026730068708434</v>
+        <v>1.044090567374548</v>
       </c>
       <c r="E21">
-        <v>0.9926687834560428</v>
+        <v>1.021708852532555</v>
       </c>
       <c r="F21">
-        <v>1.023714777630074</v>
+        <v>1.048865408551297</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.043802644026938</v>
+        <v>1.037955113942843</v>
       </c>
       <c r="J21">
-        <v>1.012532294757018</v>
+        <v>1.027325951285692</v>
       </c>
       <c r="K21">
-        <v>1.04122213068985</v>
+        <v>1.047640853570099</v>
       </c>
       <c r="L21">
-        <v>1.007790391947669</v>
+        <v>1.025343001393348</v>
       </c>
       <c r="M21">
-        <v>1.038260376518737</v>
+        <v>1.052398315656683</v>
       </c>
       <c r="N21">
-        <v>1.008114026274437</v>
+        <v>1.013158164308602</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.97946432238443</v>
+        <v>1.020089795491041</v>
       </c>
       <c r="D22">
-        <v>1.024805514098617</v>
+        <v>1.043701214955712</v>
       </c>
       <c r="E22">
-        <v>0.990526707916741</v>
+        <v>1.021258425897307</v>
       </c>
       <c r="F22">
-        <v>1.021370636922311</v>
+        <v>1.048375949092359</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.043063485556359</v>
+        <v>1.037845179288803</v>
       </c>
       <c r="J22">
-        <v>1.011133077525932</v>
+        <v>1.027040862917145</v>
       </c>
       <c r="K22">
-        <v>1.039901081134007</v>
+        <v>1.047380813864023</v>
       </c>
       <c r="L22">
-        <v>1.006288197870225</v>
+        <v>1.025025432126066</v>
       </c>
       <c r="M22">
-        <v>1.036530301380709</v>
+        <v>1.052037863402417</v>
       </c>
       <c r="N22">
-        <v>1.007642756756517</v>
+        <v>1.013062747218541</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9809590890590966</v>
+        <v>1.020374760713552</v>
       </c>
       <c r="D23">
-        <v>1.025828690822348</v>
+        <v>1.043907550549076</v>
       </c>
       <c r="E23">
-        <v>0.9916654154873561</v>
+        <v>1.021497089163446</v>
       </c>
       <c r="F23">
-        <v>1.022616834627186</v>
+        <v>1.048635312879307</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.04345730915047</v>
+        <v>1.037903535075108</v>
       </c>
       <c r="J23">
-        <v>1.011877456190384</v>
+        <v>1.027191976230159</v>
       </c>
       <c r="K23">
-        <v>1.040603892718996</v>
+        <v>1.047518671757223</v>
       </c>
       <c r="L23">
-        <v>1.007087123246271</v>
+        <v>1.025193736297306</v>
       </c>
       <c r="M23">
-        <v>1.037450423149359</v>
+        <v>1.052228908065213</v>
       </c>
       <c r="N23">
-        <v>1.007893476094675</v>
+        <v>1.013113327009278</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9867322221312887</v>
+        <v>1.021498576639051</v>
       </c>
       <c r="D24">
-        <v>1.029792810114131</v>
+        <v>1.044721358755143</v>
       </c>
       <c r="E24">
-        <v>0.9960798161140711</v>
+        <v>1.022439253790135</v>
       </c>
       <c r="F24">
-        <v>1.027446215481137</v>
+        <v>1.049658783589178</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.044964326672682</v>
+        <v>1.03813155631412</v>
       </c>
       <c r="J24">
-        <v>1.014750746782937</v>
+        <v>1.027787273732917</v>
       </c>
       <c r="K24">
-        <v>1.043316179408132</v>
+        <v>1.048061265099737</v>
       </c>
       <c r="L24">
-        <v>1.010176126105015</v>
+        <v>1.025857330007626</v>
       </c>
       <c r="M24">
-        <v>1.041007899082907</v>
+        <v>1.052981862449566</v>
       </c>
       <c r="N24">
-        <v>1.008861113697671</v>
+        <v>1.013312510020193</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.993214602080259</v>
+        <v>1.022806635107043</v>
       </c>
       <c r="D25">
-        <v>1.034266586026751</v>
+        <v>1.045668732277741</v>
       </c>
       <c r="E25">
-        <v>1.001068502792247</v>
+        <v>1.023537828603464</v>
       </c>
       <c r="F25">
-        <v>1.032899747921119</v>
+        <v>1.050851304475027</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.046626313866785</v>
+        <v>1.038392568679809</v>
       </c>
       <c r="J25">
-        <v>1.017972499788566</v>
+        <v>1.028478816322945</v>
       </c>
       <c r="K25">
-        <v>1.046355266089777</v>
+        <v>1.048690566538802</v>
       </c>
       <c r="L25">
-        <v>1.013650254245452</v>
+        <v>1.026629399714745</v>
       </c>
       <c r="M25">
-        <v>1.045007936799488</v>
+        <v>1.053857271126124</v>
       </c>
       <c r="N25">
-        <v>1.009945747254312</v>
+        <v>1.013543746460402</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_69/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_69/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.023853037233885</v>
+        <v>0.9982230214677722</v>
       </c>
       <c r="D2">
-        <v>1.046426690281516</v>
+        <v>1.037738795712746</v>
       </c>
       <c r="E2">
-        <v>1.024418202208154</v>
+        <v>1.004946926051843</v>
       </c>
       <c r="F2">
-        <v>1.051806270911759</v>
+        <v>1.03713572071037</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038597822941348</v>
+        <v>1.047884794282427</v>
       </c>
       <c r="J2">
-        <v>1.029030929428512</v>
+        <v>1.020457011870924</v>
       </c>
       <c r="K2">
-        <v>1.049192158254963</v>
+        <v>1.048696261812195</v>
       </c>
       <c r="L2">
-        <v>1.027246762104584</v>
+        <v>1.016337769891794</v>
       </c>
       <c r="M2">
-        <v>1.054556752670492</v>
+        <v>1.048100848029356</v>
       </c>
       <c r="N2">
-        <v>1.013728238835013</v>
+        <v>1.010781819624371</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.024614579614752</v>
+        <v>1.001771705830172</v>
       </c>
       <c r="D3">
-        <v>1.04697835063581</v>
+        <v>1.040206930476788</v>
       </c>
       <c r="E3">
-        <v>1.025059803085877</v>
+        <v>1.007708172029346</v>
       </c>
       <c r="F3">
-        <v>1.052501830847125</v>
+        <v>1.040149053611412</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.038745142137015</v>
+        <v>1.048760973051475</v>
       </c>
       <c r="J3">
-        <v>1.029432101398863</v>
+        <v>1.022214188606297</v>
       </c>
       <c r="K3">
-        <v>1.049556134688157</v>
+        <v>1.050349958831578</v>
       </c>
       <c r="L3">
-        <v>1.027695900305702</v>
+        <v>1.018243366317334</v>
       </c>
       <c r="M3">
-        <v>1.055065333496253</v>
+        <v>1.05029275343798</v>
       </c>
       <c r="N3">
-        <v>1.013862221798008</v>
+        <v>1.011372885983242</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.025108151980992</v>
+        <v>1.004029145735308</v>
       </c>
       <c r="D4">
-        <v>1.047335907651674</v>
+        <v>1.041780301434272</v>
       </c>
       <c r="E4">
-        <v>1.025476046816933</v>
+        <v>1.009470590550102</v>
       </c>
       <c r="F4">
-        <v>1.052952894336875</v>
+        <v>1.042071151602146</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.038839669537429</v>
+        <v>1.049310938354696</v>
       </c>
       <c r="J4">
-        <v>1.029691812000185</v>
+        <v>1.023330344099207</v>
       </c>
       <c r="K4">
-        <v>1.049791539015942</v>
+        <v>1.051399327698954</v>
       </c>
       <c r="L4">
-        <v>1.027986920123492</v>
+        <v>1.019456042039511</v>
       </c>
       <c r="M4">
-        <v>1.055394729579753</v>
+        <v>1.051687006047253</v>
       </c>
       <c r="N4">
-        <v>1.01394892638787</v>
+        <v>1.011748203016522</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.025315840222298</v>
+        <v>1.004969148713686</v>
       </c>
       <c r="D5">
-        <v>1.047486365194926</v>
+        <v>1.042436197797492</v>
       </c>
       <c r="E5">
-        <v>1.025651293434718</v>
+        <v>1.010205848433353</v>
       </c>
       <c r="F5">
-        <v>1.053142756048976</v>
+        <v>1.042872722229546</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.038879217011232</v>
+        <v>1.049538136505984</v>
       </c>
       <c r="J5">
-        <v>1.029801023048343</v>
+        <v>1.023794695839166</v>
       </c>
       <c r="K5">
-        <v>1.049890474503355</v>
+        <v>1.051835620316593</v>
       </c>
       <c r="L5">
-        <v>1.028109358504893</v>
+        <v>1.019961087999954</v>
       </c>
       <c r="M5">
-        <v>1.055533280126733</v>
+        <v>1.052267510417894</v>
       </c>
       <c r="N5">
-        <v>1.013985378584614</v>
+        <v>1.011904312932567</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.025350723101563</v>
+        <v>1.005126457595778</v>
       </c>
       <c r="D6">
-        <v>1.047511635861204</v>
+        <v>1.042546003700906</v>
       </c>
       <c r="E6">
-        <v>1.02568073316916</v>
+        <v>1.010328973735093</v>
       </c>
       <c r="F6">
-        <v>1.053174648356761</v>
+        <v>1.043006934040192</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.038885845932676</v>
+        <v>1.049576050731579</v>
       </c>
       <c r="J6">
-        <v>1.029819361708663</v>
+        <v>1.023872379571463</v>
       </c>
       <c r="K6">
-        <v>1.049907084492698</v>
+        <v>1.051908593199951</v>
       </c>
       <c r="L6">
-        <v>1.028129921896475</v>
+        <v>1.020045611384402</v>
       </c>
       <c r="M6">
-        <v>1.055556547566958</v>
+        <v>1.05236465236162</v>
       </c>
       <c r="N6">
-        <v>1.013991499147817</v>
+        <v>1.011930427383639</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.02511092637566</v>
+        <v>1.004041741220231</v>
       </c>
       <c r="D7">
-        <v>1.047337917522997</v>
+        <v>1.041789087200049</v>
       </c>
       <c r="E7">
-        <v>1.025478387460559</v>
+        <v>1.00948043715384</v>
       </c>
       <c r="F7">
-        <v>1.052955430359382</v>
+        <v>1.042081887479569</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.038840198727541</v>
+        <v>1.049313989857512</v>
       </c>
       <c r="J7">
-        <v>1.029693271172418</v>
+        <v>1.023336567818139</v>
       </c>
       <c r="K7">
-        <v>1.049792861110604</v>
+        <v>1.051405176449597</v>
       </c>
       <c r="L7">
-        <v>1.027988555785019</v>
+        <v>1.019462809054323</v>
       </c>
       <c r="M7">
-        <v>1.055396580616655</v>
+        <v>1.051694784777634</v>
       </c>
       <c r="N7">
-        <v>1.01394941345828</v>
+        <v>1.011750295492423</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.024110236501439</v>
+        <v>0.9994305106833991</v>
       </c>
       <c r="D8">
-        <v>1.046613001850945</v>
+        <v>1.038577889291488</v>
       </c>
       <c r="E8">
-        <v>1.024634808350747</v>
+        <v>1.005885225667178</v>
       </c>
       <c r="F8">
-        <v>1.052041132333341</v>
+        <v>1.038159929970219</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038647774891168</v>
+        <v>1.048184454691488</v>
       </c>
       <c r="J8">
-        <v>1.029166480583135</v>
+        <v>1.021055245521538</v>
       </c>
       <c r="K8">
-        <v>1.049315188243897</v>
+        <v>1.049259474203625</v>
       </c>
       <c r="L8">
-        <v>1.027398467294819</v>
+        <v>1.016986063625037</v>
       </c>
       <c r="M8">
-        <v>1.054728564585191</v>
+        <v>1.048846667362414</v>
       </c>
       <c r="N8">
-        <v>1.013773516921723</v>
+        <v>1.010983074619999</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.022353133330482</v>
+        <v>0.9909954621041742</v>
       </c>
       <c r="D9">
-        <v>1.045340263471939</v>
+        <v>1.032732431108986</v>
       </c>
       <c r="E9">
-        <v>1.023156713416005</v>
+        <v>0.9993568185277463</v>
       </c>
       <c r="F9">
-        <v>1.050437704694547</v>
+        <v>1.031029136703307</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038302623882868</v>
+        <v>1.046061291989651</v>
       </c>
       <c r="J9">
-        <v>1.028239228635604</v>
+        <v>1.016870250539323</v>
       </c>
       <c r="K9">
-        <v>1.048472670158234</v>
+        <v>1.045315867277189</v>
       </c>
       <c r="L9">
-        <v>1.02636176483822</v>
+        <v>1.012460339528937</v>
       </c>
       <c r="M9">
-        <v>1.053553893113842</v>
+        <v>1.043638077035724</v>
       </c>
       <c r="N9">
-        <v>1.013463652449037</v>
+        <v>1.009574716452552</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.021186043425238</v>
+        <v>0.9851459627059046</v>
       </c>
       <c r="D10">
-        <v>1.044495025980832</v>
+        <v>1.028701673536756</v>
       </c>
       <c r="E10">
-        <v>1.022177084468558</v>
+        <v>0.9948642602675705</v>
       </c>
       <c r="F10">
-        <v>1.049374056777309</v>
+        <v>1.026116690706335</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038068486911497</v>
+        <v>1.044552587671034</v>
       </c>
       <c r="J10">
-        <v>1.027621826724518</v>
+        <v>1.013961574264878</v>
       </c>
       <c r="K10">
-        <v>1.047910544894086</v>
+        <v>1.042571351692958</v>
       </c>
       <c r="L10">
-        <v>1.025672808749539</v>
+        <v>1.009326865366907</v>
       </c>
       <c r="M10">
-        <v>1.052772542231874</v>
+        <v>1.040029885120883</v>
       </c>
       <c r="N10">
-        <v>1.013257164087596</v>
+        <v>1.008595368861201</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.020681728132174</v>
+        <v>0.9825551539648049</v>
       </c>
       <c r="D11">
-        <v>1.04412982728349</v>
+        <v>1.026922676241746</v>
       </c>
       <c r="E11">
-        <v>1.021754287945052</v>
+        <v>0.9928832119934278</v>
       </c>
       <c r="F11">
-        <v>1.048914772973975</v>
+        <v>1.023949399767787</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.037966155977153</v>
+        <v>1.043876237020029</v>
       </c>
       <c r="J11">
-        <v>1.027354683555181</v>
+        <v>1.012672108006844</v>
       </c>
       <c r="K11">
-        <v>1.047667051576662</v>
+        <v>1.041354124085023</v>
       </c>
       <c r="L11">
-        <v>1.025375018784589</v>
+        <v>1.007940600186265</v>
       </c>
       <c r="M11">
-        <v>1.052434650464642</v>
+        <v>1.038433370147866</v>
       </c>
       <c r="N11">
-        <v>1.013167779358913</v>
+        <v>1.008161114103402</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.020494561586682</v>
+        <v>0.9815837218224889</v>
       </c>
       <c r="D12">
-        <v>1.04399429779027</v>
+        <v>1.026256650916199</v>
       </c>
       <c r="E12">
-        <v>1.021597453312404</v>
+        <v>0.9921417728751333</v>
       </c>
       <c r="F12">
-        <v>1.048744369654748</v>
+        <v>1.023138109236611</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037928004101164</v>
+        <v>1.043621458681194</v>
       </c>
       <c r="J12">
-        <v>1.027255485503811</v>
+        <v>1.012188472193902</v>
       </c>
       <c r="K12">
-        <v>1.047576595439336</v>
+        <v>1.040897529993731</v>
       </c>
       <c r="L12">
-        <v>1.025264487880038</v>
+        <v>1.007421088717684</v>
       </c>
       <c r="M12">
-        <v>1.052309210189686</v>
+        <v>1.037835051261182</v>
       </c>
       <c r="N12">
-        <v>1.013134582310867</v>
+        <v>1.007998227850228</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.02053470223637</v>
+        <v>0.9817925151038132</v>
       </c>
       <c r="D13">
-        <v>1.044023363790902</v>
+        <v>1.026399754947626</v>
       </c>
       <c r="E13">
-        <v>1.021631085299746</v>
+        <v>0.9923010706750492</v>
       </c>
       <c r="F13">
-        <v>1.04878091287619</v>
+        <v>1.023312420952936</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037936194202958</v>
+        <v>1.043676271635348</v>
       </c>
       <c r="J13">
-        <v>1.027276762405925</v>
+        <v>1.012292427817062</v>
       </c>
       <c r="K13">
-        <v>1.047595999100502</v>
+        <v>1.040995675021114</v>
       </c>
       <c r="L13">
-        <v>1.025288193419446</v>
+        <v>1.007532736201692</v>
       </c>
       <c r="M13">
-        <v>1.052336114456872</v>
+        <v>1.037963635486819</v>
       </c>
       <c r="N13">
-        <v>1.013141702982332</v>
+        <v>1.008033240108231</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.020666253639934</v>
+        <v>0.9824750428278486</v>
       </c>
       <c r="D14">
-        <v>1.044118621880936</v>
+        <v>1.026867730014031</v>
       </c>
       <c r="E14">
-        <v>1.021741319632585</v>
+        <v>0.9928220397400839</v>
       </c>
       <c r="F14">
-        <v>1.048900683387812</v>
+        <v>1.023882467336928</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.037963005215207</v>
+        <v>1.043855249923146</v>
       </c>
       <c r="J14">
-        <v>1.027346483176693</v>
+        <v>1.012632226782991</v>
       </c>
       <c r="K14">
-        <v>1.047659574677486</v>
+        <v>1.041316473660495</v>
       </c>
       <c r="L14">
-        <v>1.025365880593123</v>
+        <v>1.007897751849687</v>
       </c>
       <c r="M14">
-        <v>1.052424280138766</v>
+        <v>1.038384022109975</v>
       </c>
       <c r="N14">
-        <v>1.013165035187511</v>
+        <v>1.008147682522431</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.020747327878782</v>
+        <v>0.9828943542201145</v>
       </c>
       <c r="D15">
-        <v>1.044177329707161</v>
+        <v>1.027155367097976</v>
       </c>
       <c r="E15">
-        <v>1.021809266641781</v>
+        <v>0.9931422785411147</v>
       </c>
       <c r="F15">
-        <v>1.04897450388235</v>
+        <v>1.02423285495442</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.037979505624712</v>
+        <v>1.043965051107361</v>
       </c>
       <c r="J15">
-        <v>1.027389444569341</v>
+        <v>1.012840964159021</v>
       </c>
       <c r="K15">
-        <v>1.0476987441611</v>
+        <v>1.041513533109885</v>
       </c>
       <c r="L15">
-        <v>1.025413757076546</v>
+        <v>1.008122036587542</v>
       </c>
       <c r="M15">
-        <v>1.052478610963018</v>
+        <v>1.038642328302382</v>
       </c>
       <c r="N15">
-        <v>1.013179411529812</v>
+        <v>1.008217982630574</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.021219535302667</v>
+        <v>0.9853166530007049</v>
       </c>
       <c r="D16">
-        <v>1.044519279944407</v>
+        <v>1.028819016323062</v>
       </c>
       <c r="E16">
-        <v>1.022205173531016</v>
+        <v>0.9949949643709829</v>
       </c>
       <c r="F16">
-        <v>1.049404565163262</v>
+        <v>1.026259661194926</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.038075258374254</v>
+        <v>1.044596981556912</v>
       </c>
       <c r="J16">
-        <v>1.027639560382713</v>
+        <v>1.014046506149179</v>
       </c>
       <c r="K16">
-        <v>1.047926702993018</v>
+        <v>1.042651516660605</v>
       </c>
       <c r="L16">
-        <v>1.025692583440455</v>
+        <v>1.009418232736723</v>
       </c>
       <c r="M16">
-        <v>1.052794976394463</v>
+        <v>1.040135106659324</v>
       </c>
       <c r="N16">
-        <v>1.013263096850104</v>
+        <v>1.0086239696953</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.021516019025545</v>
+        <v>0.9868203195454072</v>
       </c>
       <c r="D17">
-        <v>1.0447339905928</v>
+        <v>1.029853451776877</v>
       </c>
       <c r="E17">
-        <v>1.022453888893904</v>
+        <v>0.9961473844968529</v>
       </c>
       <c r="F17">
-        <v>1.049674676380678</v>
+        <v>1.027520111641492</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038135068300194</v>
+        <v>1.044987138992082</v>
       </c>
       <c r="J17">
-        <v>1.0277965048554</v>
+        <v>1.014794567769966</v>
       </c>
       <c r="K17">
-        <v>1.048069672713389</v>
+        <v>1.043357534424322</v>
       </c>
       <c r="L17">
-        <v>1.025867627520022</v>
+        <v>1.010223302912076</v>
       </c>
       <c r="M17">
-        <v>1.052993542778119</v>
+        <v>1.041062226629622</v>
       </c>
       <c r="N17">
-        <v>1.013315597779758</v>
+        <v>1.008875869288798</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.021689053400592</v>
+        <v>0.987691819864489</v>
       </c>
       <c r="D18">
-        <v>1.044859304214769</v>
+        <v>1.030453585407533</v>
       </c>
       <c r="E18">
-        <v>1.022599094261572</v>
+        <v>0.9968161385874724</v>
       </c>
       <c r="F18">
-        <v>1.049832351290326</v>
+        <v>1.028251451185808</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038169862886497</v>
+        <v>1.045212491124857</v>
       </c>
       <c r="J18">
-        <v>1.027888066723198</v>
+        <v>1.015228017414519</v>
       </c>
       <c r="K18">
-        <v>1.048153055805909</v>
+        <v>1.043766569625954</v>
       </c>
       <c r="L18">
-        <v>1.025969779052358</v>
+        <v>1.010690056875247</v>
       </c>
       <c r="M18">
-        <v>1.053109405353282</v>
+        <v>1.041599717684268</v>
       </c>
       <c r="N18">
-        <v>1.013346223168047</v>
+        <v>1.009021818564954</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.021748070625381</v>
+        <v>0.9879880467672092</v>
       </c>
       <c r="D19">
-        <v>1.044902045836857</v>
+        <v>1.03065767179341</v>
       </c>
       <c r="E19">
-        <v>1.022648628188121</v>
+        <v>0.9970435906426106</v>
       </c>
       <c r="F19">
-        <v>1.049886135252117</v>
+        <v>1.028500171092693</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.038181711390738</v>
+        <v>1.045288956330827</v>
       </c>
       <c r="J19">
-        <v>1.027919290102828</v>
+        <v>1.015375328565992</v>
       </c>
       <c r="K19">
-        <v>1.048181485758318</v>
+        <v>1.043905573538571</v>
       </c>
       <c r="L19">
-        <v>1.026004618736671</v>
+        <v>1.010848732834388</v>
       </c>
       <c r="M19">
-        <v>1.053148918590405</v>
+        <v>1.041782436600803</v>
       </c>
       <c r="N19">
-        <v>1.013356666040185</v>
+        <v>1.009071418940296</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.021484198724967</v>
+        <v>0.9866595684811712</v>
       </c>
       <c r="D20">
-        <v>1.044710946240401</v>
+        <v>1.029742802469113</v>
       </c>
       <c r="E20">
-        <v>1.022427190223794</v>
+        <v>0.9960240973778688</v>
       </c>
       <c r="F20">
-        <v>1.049645683200759</v>
+        <v>1.027385278091017</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.038128660722757</v>
+        <v>1.044945509030016</v>
       </c>
       <c r="J20">
-        <v>1.027779664243013</v>
+        <v>1.014714607105985</v>
       </c>
       <c r="K20">
-        <v>1.048054334306904</v>
+        <v>1.043282073142657</v>
       </c>
       <c r="L20">
-        <v>1.025848841631455</v>
+        <v>1.010137220381276</v>
       </c>
       <c r="M20">
-        <v>1.05297223410941</v>
+        <v>1.040963096158604</v>
       </c>
       <c r="N20">
-        <v>1.013309964666308</v>
+        <v>1.008848944539058</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.020627510635886</v>
+        <v>0.9822743095697423</v>
       </c>
       <c r="D21">
-        <v>1.044090567374548</v>
+        <v>1.026730068708434</v>
       </c>
       <c r="E21">
-        <v>1.021708852532555</v>
+        <v>0.9926687834560429</v>
       </c>
       <c r="F21">
-        <v>1.048865408551297</v>
+        <v>1.023714777630075</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.037955113942843</v>
+        <v>1.043802644026938</v>
       </c>
       <c r="J21">
-        <v>1.027325951285692</v>
+        <v>1.012532294757018</v>
       </c>
       <c r="K21">
-        <v>1.047640853570099</v>
+        <v>1.04122213068985</v>
       </c>
       <c r="L21">
-        <v>1.025343001393348</v>
+        <v>1.007790391947669</v>
       </c>
       <c r="M21">
-        <v>1.052398315656683</v>
+        <v>1.038260376518737</v>
       </c>
       <c r="N21">
-        <v>1.013158164308602</v>
+        <v>1.008114026274437</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.020089795491041</v>
+        <v>0.9794643223844298</v>
       </c>
       <c r="D22">
-        <v>1.043701214955712</v>
+        <v>1.024805514098617</v>
       </c>
       <c r="E22">
-        <v>1.021258425897307</v>
+        <v>0.9905267079167408</v>
       </c>
       <c r="F22">
-        <v>1.048375949092359</v>
+        <v>1.021370636922311</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.037845179288803</v>
+        <v>1.043063485556359</v>
       </c>
       <c r="J22">
-        <v>1.027040862917145</v>
+        <v>1.011133077525932</v>
       </c>
       <c r="K22">
-        <v>1.047380813864023</v>
+        <v>1.039901081134007</v>
       </c>
       <c r="L22">
-        <v>1.025025432126066</v>
+        <v>1.006288197870225</v>
       </c>
       <c r="M22">
-        <v>1.052037863402417</v>
+        <v>1.036530301380708</v>
       </c>
       <c r="N22">
-        <v>1.013062747218541</v>
+        <v>1.007642756756517</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.020374760713552</v>
+        <v>0.9809590890590966</v>
       </c>
       <c r="D23">
-        <v>1.043907550549076</v>
+        <v>1.025828690822348</v>
       </c>
       <c r="E23">
-        <v>1.021497089163446</v>
+        <v>0.9916654154873559</v>
       </c>
       <c r="F23">
-        <v>1.048635312879307</v>
+        <v>1.022616834627186</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037903535075108</v>
+        <v>1.04345730915047</v>
       </c>
       <c r="J23">
-        <v>1.027191976230159</v>
+        <v>1.011877456190383</v>
       </c>
       <c r="K23">
-        <v>1.047518671757223</v>
+        <v>1.040603892718997</v>
       </c>
       <c r="L23">
-        <v>1.025193736297306</v>
+        <v>1.007087123246271</v>
       </c>
       <c r="M23">
-        <v>1.052228908065213</v>
+        <v>1.037450423149359</v>
       </c>
       <c r="N23">
-        <v>1.013113327009278</v>
+        <v>1.007893476094675</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.021498576639051</v>
+        <v>0.9867322221312885</v>
       </c>
       <c r="D24">
-        <v>1.044721358755143</v>
+        <v>1.029792810114131</v>
       </c>
       <c r="E24">
-        <v>1.022439253790135</v>
+        <v>0.9960798161140708</v>
       </c>
       <c r="F24">
-        <v>1.049658783589178</v>
+        <v>1.027446215481137</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.03813155631412</v>
+        <v>1.044964326672682</v>
       </c>
       <c r="J24">
-        <v>1.027787273732917</v>
+        <v>1.014750746782936</v>
       </c>
       <c r="K24">
-        <v>1.048061265099737</v>
+        <v>1.043316179408131</v>
       </c>
       <c r="L24">
-        <v>1.025857330007626</v>
+        <v>1.010176126105015</v>
       </c>
       <c r="M24">
-        <v>1.052981862449566</v>
+        <v>1.041007899082907</v>
       </c>
       <c r="N24">
-        <v>1.013312510020193</v>
+        <v>1.008861113697671</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.022806635107043</v>
+        <v>0.9932146020802587</v>
       </c>
       <c r="D25">
-        <v>1.045668732277741</v>
+        <v>1.034266586026751</v>
       </c>
       <c r="E25">
-        <v>1.023537828603464</v>
+        <v>1.001068502792247</v>
       </c>
       <c r="F25">
-        <v>1.050851304475027</v>
+        <v>1.032899747921119</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.038392568679809</v>
+        <v>1.046626313866785</v>
       </c>
       <c r="J25">
-        <v>1.028478816322945</v>
+        <v>1.017972499788566</v>
       </c>
       <c r="K25">
-        <v>1.048690566538802</v>
+        <v>1.046355266089777</v>
       </c>
       <c r="L25">
-        <v>1.026629399714745</v>
+        <v>1.013650254245452</v>
       </c>
       <c r="M25">
-        <v>1.053857271126124</v>
+        <v>1.045007936799488</v>
       </c>
       <c r="N25">
-        <v>1.013543746460402</v>
+        <v>1.009945747254312</v>
       </c>
     </row>
   </sheetData>
